--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jokubas\Documents\VU\Lygiagretieji\3lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D50EFD-A601-40E2-A5AF-E89CF7612A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72986122-3164-4442-9AC1-56873E5F5956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>33.745</t>
   </si>
@@ -82,6 +82,21 @@
   <si>
     <t>Milisekundės</t>
   </si>
+  <si>
+    <t>Rezoliucija x*x</t>
+  </si>
+  <si>
+    <t>x=500</t>
+  </si>
+  <si>
+    <t>x=1000</t>
+  </si>
+  <si>
+    <t>x=2000</t>
+  </si>
+  <si>
+    <t>Spartinimas</t>
+  </si>
 </sst>
 </file>
 
@@ -117,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,12 +189,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>Darbo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="lt-LT" baseline="0"/>
-              <a:t> vykdymo laikas</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Algoritmo darbo vykdymo laikas</a:t>
             </a:r>
             <a:endParaRPr lang="lt-LT"/>
           </a:p>
@@ -220,10 +232,144 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>40000 iteracijų</c:v>
+            <c:v>500x500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.590999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C3D7-4AD1-84FB-6DB4708DB61D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000x1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>75.769000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.088000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9130000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C3D7-4AD1-84FB-6DB4708DB61D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2000x2000</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -251,7 +397,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$12</c:f>
+              <c:f>Sheet1!$U$6:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -281,30 +427,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$12</c:f>
+              <c:f>Sheet1!$V$6:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>150529</c:v>
+                  <c:v>303.81200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76948</c:v>
+                  <c:v>167.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46637</c:v>
+                  <c:v>92.150999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32083</c:v>
+                  <c:v>62.686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25187</c:v>
+                  <c:v>47.825000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20522</c:v>
+                  <c:v>38.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17236</c:v>
+                  <c:v>32.771999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,201 +458,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2853-4D10-B94E-58F19C3C4DA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>20000 iteracijų</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$M$6:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$6:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>75769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23424</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10595</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8913</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2853-4D10-B94E-58F19C3C4DA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>10000 iteracijų</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$M$6:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$6:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>38336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12376</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8570</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6771</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5483</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4221</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2853-4D10-B94E-58F19C3C4DA6}"/>
+              <c16:uniqueId val="{00000001-C3D7-4AD1-84FB-6DB4708DB61D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -520,11 +472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1934877583"/>
-        <c:axId val="1714996575"/>
+        <c:axId val="7373600"/>
+        <c:axId val="1983202160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1934877583"/>
+        <c:axId val="7373600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +578,7 @@
             <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714996575"/>
+        <c:crossAx val="1983202160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1714996575"/>
+        <c:axId val="1983202160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +627,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="lt-LT"/>
-                  <a:t>Milisekundės</a:t>
+                  <a:t>Sekundės</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -740,7 +692,7 @@
             <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934877583"/>
+        <c:crossAx val="7373600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,6 +706,1244 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lt-LT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lt-LT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Algoritmo spartinimas</a:t>
+            </a:r>
+            <a:endParaRPr lang="lt-LT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lt-LT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>500x500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$18:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3563872255489022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3885764499121263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1873827392120071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2725558000628734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9620299379335524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1055705300988317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FD0-4E08-8144-A71ACD03DD99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000x1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$18:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9384209987720018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2346738387978147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5754227053140104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8776665890931659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1513921661160929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5009536631886018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FD0-4E08-8144-A71ACD03DD99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2000x2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$18:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$18:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8139112782852707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.29689314277653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8465686118112501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3525771040250918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8366694180767649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2704747955571829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FD0-4E08-8144-A71ACD03DD99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="72199632"/>
+        <c:axId val="10629600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72199632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Gij</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>ų</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" baseline="0"/>
+                  <a:t> skaičius</a:t>
+                </a:r>
+                <a:endParaRPr lang="lt-LT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lt-LT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lt-LT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10629600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10629600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spartinimas</a:t>
+                </a:r>
+                <a:endParaRPr lang="lt-LT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lt-LT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lt-LT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72199632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lt-LT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lt-LT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Algoritmo plečiamumas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lt-LT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4 gijos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$30:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.912000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-83A0-4A82-B71F-C7DD3C812332}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8 gijos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$30:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.776000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-83A0-4A82-B71F-C7DD3C812332}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>12 gijų</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$30:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$30:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.936000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83A0-4A82-B71F-C7DD3C812332}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="176114752"/>
+        <c:axId val="1923863088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="176114752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>Rezoliucija</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lt-LT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lt-LT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923863088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1923863088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>Sekundės</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lt-LT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lt-LT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176114752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -867,6 +2057,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1370,27 +2640,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7480C47-826A-4C10-8D1D-5C12DCC3B903}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44B8C30-0B47-458E-8763-C2D58140F7DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,6 +3679,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A2B5A5-22A6-4EA0-85C1-37BA56C19B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>890587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64150AFD-2C3C-46C3-81CF-F5BCA98D1BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1708,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N18"/>
+  <dimension ref="B2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,9 +4067,12 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>13</v>
       </c>
@@ -1733,8 +4084,16 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1743,8 +4102,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1765,8 +4132,20 @@
         <v>40000</v>
       </c>
       <c r="N4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1797,8 +4176,26 @@
       <c r="N5" t="s">
         <v>15</v>
       </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1832,8 +4229,27 @@
         <f>150.529*1000</f>
         <v>150529</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>13.590999999999999</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>75.769</f>
+        <v>75.769000000000005</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>303.81200000000001</v>
+      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1867,8 +4283,27 @@
         <f>76.948*1000</f>
         <v>76948</v>
       </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>10.02</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f>39.088</f>
+        <v>39.088000000000001</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>167.49</v>
+      </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1902,8 +4337,27 @@
         <f>46.637*1000</f>
         <v>46637</v>
       </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>5.69</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <f>23.424</f>
+        <v>23.423999999999999</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>92.150999999999996</v>
+      </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -1937,8 +4391,27 @@
         <f>32.083*1000</f>
         <v>32083</v>
       </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>4.2640000000000002</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <f>16.56</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>62.686</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1972,8 +4445,27 @@
         <f>25.187*1000</f>
         <v>25187</v>
       </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>3.181</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <f>12.891</f>
+        <v>12.891</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>47.825000000000003</v>
+      </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -2007,8 +4499,27 @@
         <f>20.522*1000</f>
         <v>20522</v>
       </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f>10.595</f>
+        <v>10.595000000000001</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>38.768000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -2042,8 +4553,27 @@
         <f>17.236*1000</f>
         <v>17236</v>
       </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>2.226</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <f>8.913</f>
+        <v>8.9130000000000003</v>
+      </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
+      <c r="V12">
+        <v>32.771999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -2057,48 +4587,388 @@
         <v>6.3040000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>16</v>
       </c>
       <c r="F14">
         <v>5.8840000000000003</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>18</v>
       </c>
       <c r="F15">
         <v>5.39</v>
       </c>
+      <c r="Q15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16">
         <v>4.9000000000000004</v>
       </c>
+      <c r="Q16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>22</v>
       </c>
       <c r="F17">
         <v>4.7220000000000004</v>
       </c>
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>24</v>
       </c>
       <c r="F18">
         <v>4.4800000000000004</v>
       </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>R6/R6</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f>T6/T6</f>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f>V6/V6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <f>R6/R7</f>
+        <v>1.3563872255489022</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <f>T6/T7</f>
+        <v>1.9384209987720018</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f>V6/V7</f>
+        <v>1.8139112782852707</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <f>R6/R8</f>
+        <v>2.3885764499121263</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <f>T6/T8</f>
+        <v>3.2346738387978147</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <f>V6/V8</f>
+        <v>3.29689314277653</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <f>R6/R9</f>
+        <v>3.1873827392120071</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f>T6/T9</f>
+        <v>4.5754227053140104</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <f>V6/V9</f>
+        <v>4.8465686118112501</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <f>R6/R10</f>
+        <v>4.2725558000628734</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <f>T6/T10</f>
+        <v>5.8776665890931659</v>
+      </c>
+      <c r="U22">
+        <v>8</v>
+      </c>
+      <c r="V22">
+        <f>V6/V10</f>
+        <v>6.3525771040250918</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <f>R6/R11</f>
+        <v>4.9620299379335524</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <f>T6/T11</f>
+        <v>7.1513921661160929</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <f>V6/V11</f>
+        <v>7.8366694180767649</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <f>R6/R12</f>
+        <v>6.1055705300988317</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <f>T6/T12</f>
+        <v>8.5009536631886018</v>
+      </c>
+      <c r="U24">
+        <v>12</v>
+      </c>
+      <c r="V24">
+        <f>V6/V12</f>
+        <v>9.2704747955571829</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2">
+        <v>12</v>
+      </c>
+      <c r="S28" s="2">
+        <v>8</v>
+      </c>
+      <c r="T28" s="2">
+        <v>4</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>500</v>
+      </c>
+      <c r="R30">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="S30">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="T30">
+        <v>5.6689999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>1000</v>
+      </c>
+      <c r="R31">
+        <v>8.5020000000000007</v>
+      </c>
+      <c r="S31">
+        <v>12.522</v>
+      </c>
+      <c r="T31">
+        <v>23.478000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>1500</v>
+      </c>
+      <c r="R32">
+        <v>18.654</v>
+      </c>
+      <c r="S32">
+        <v>27.631</v>
+      </c>
+      <c r="T32">
+        <v>51.896000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>2000</v>
+      </c>
+      <c r="R33">
+        <v>32.732999999999997</v>
+      </c>
+      <c r="S33">
+        <v>47.776000000000003</v>
+      </c>
+      <c r="T33">
+        <v>90.912000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>2500</v>
+      </c>
+      <c r="R34">
+        <v>50.62</v>
+      </c>
+      <c r="S34">
+        <v>73.838999999999999</v>
+      </c>
+      <c r="T34">
+        <v>137.65899999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>3000</v>
+      </c>
+      <c r="R35">
+        <v>71.936000000000007</v>
+      </c>
+      <c r="S35">
+        <v>105.276</v>
+      </c>
+      <c r="T35">
+        <v>192.316</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="20">
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="B4:C4"/>
